--- a/design/database/gc-createTable.xlsx
+++ b/design/database/gc-createTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
   <si>
     <t>序号</t>
   </si>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SEVING_AMOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名称:  垃圾表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表编码:  T_GC_DB_CLASSIFICATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注说明:  分类表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,18 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLASSIFICATION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLASSIFICATION_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,26 +183,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODIFIED_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>并发控制字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_CONTROL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TINYINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>并发控制字段：uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名称:  垃圾分类表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +232,29 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_GC_DB_CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> IS_ENABLE</t>
+  </si>
+  <si>
+    <t>DESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,10 +341,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L60"/>
+  <dimension ref="B3:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,17 +638,17 @@
     <row r="3" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
@@ -721,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -737,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -751,10 +738,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -768,7 +755,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>17</v>
@@ -779,22 +766,24 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>500</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>17</v>
@@ -805,30 +794,28 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>500</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -839,12 +826,14 @@
         <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>500</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -854,18 +843,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -874,7 +863,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>17</v>
@@ -885,13 +874,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -900,39 +889,23 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
@@ -960,109 +933,125 @@
     </row>
     <row r="16" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4" t="s">
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>12</v>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>17</v>
@@ -1070,27 +1059,25 @@
     </row>
     <row r="21" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1">
-        <v>100</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>17</v>
@@ -1098,25 +1085,27 @@
     </row>
     <row r="22" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="G22" s="1">
+        <v>500</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>17</v>
@@ -1124,44 +1113,42 @@
     </row>
     <row r="23" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1">
-        <v>500</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1170,95 +1157,61 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="1">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    <row r="25" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="1">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="1">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="1">
-        <v>36</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1266,113 +1219,145 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="L28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>12</v>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>17</v>
@@ -1380,25 +1365,27 @@
     </row>
     <row r="34" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="G34" s="1">
+        <v>500</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>17</v>
@@ -1406,25 +1393,25 @@
     </row>
     <row r="35" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>17</v>
@@ -1432,204 +1419,70 @@
     </row>
     <row r="36" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C37" s="1">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="1">
-        <v>500</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="1">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C40" s="1">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C41" s="1">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="1">
-        <v>36</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="60" spans="2:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="55" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/database/gc-createTable.xlsx
+++ b/design/database/gc-createTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -103,11 +103,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注说明:  垃圾表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称: 分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明:  分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：1,自己 2，外部接口 3，其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGIN_ADR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称:  垃圾分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明:  垃圾分类表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GARBAGE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GARBAGE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGIN_ADR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_ENABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：1,自己 2，外部接口 3，其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用：1，可用 0，不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认:now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表编码:  T_GC_DB_GARBAGE_INFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注说明:  垃圾表</t>
+    <t>CATEGORY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_GC_DB_CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,146 +291,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GARBAGE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GARBAGE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名称: 分类表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明:  分类表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORIGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATED_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据来源：1,自己 2，外部接口 3，其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据来源位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORIGIN_ADR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可用：1，可用 2，不可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名称:  垃圾分类表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表编码:  T_GC_BU_GARBAGE_CLASSIFICATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明:  垃圾分类表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表编码:  T_GC_DB_CATEGORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATEGORY_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATEGORY_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> IS_ENABLE</t>
-  </si>
-  <si>
-    <t>DESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,13 +683,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
@@ -708,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -724,7 +765,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>13</v>
@@ -738,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -755,7 +796,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>17</v>
@@ -766,10 +807,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
@@ -783,7 +824,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>17</v>
@@ -794,13 +835,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -809,7 +850,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>17</v>
@@ -820,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -837,7 +878,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>17</v>
@@ -848,22 +889,24 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>17</v>
@@ -874,13 +917,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -889,7 +932,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>17</v>
@@ -934,17 +977,17 @@
     <row r="16" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="2" t="s">
@@ -1004,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
@@ -1020,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>13</v>
@@ -1034,10 +1077,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
@@ -1051,7 +1094,7 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>17</v>
@@ -1062,13 +1105,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1077,7 +1120,7 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>17</v>
@@ -1088,10 +1131,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>22</v>
@@ -1105,7 +1148,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>17</v>
@@ -1116,22 +1159,24 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>17</v>
@@ -1142,13 +1187,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1157,7 +1202,7 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>17</v>
@@ -1190,17 +1235,17 @@
     <row r="27" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
@@ -1260,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>21</v>
@@ -1276,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>13</v>
@@ -1290,10 +1335,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>18</v>
@@ -1301,11 +1346,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>17</v>
@@ -1316,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>18</v>
@@ -1327,11 +1372,11 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>17</v>
@@ -1342,13 +1387,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1357,7 +1402,7 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>17</v>
@@ -1368,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>22</v>
@@ -1385,7 +1430,7 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>17</v>
@@ -1396,22 +1441,24 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>17</v>
@@ -1422,13 +1469,13 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1437,7 +1484,7 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>17</v>

--- a/design/database/gc-createTable.xlsx
+++ b/design/database/gc-createTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>序号</t>
   </si>
@@ -296,6 +296,78 @@
   </si>
   <si>
     <t>表编码:  T_GC_BU_GARBAGE_CLASSIFICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称:  值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明:  值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值列ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型包含值编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型包含值的映射值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LKV_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOKUP_TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOKUP_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOKUP_VALUE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOKUP_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表编码:  T_GC_DB_LOOKUP_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L55"/>
+  <dimension ref="B3:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1456,7 @@
     </row>
     <row r="33" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>32</v>
@@ -1410,7 +1482,7 @@
     </row>
     <row r="34" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>39</v>
@@ -1438,7 +1510,7 @@
     </row>
     <row r="35" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>35</v>
@@ -1466,7 +1538,7 @@
     </row>
     <row r="36" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>41</v>
@@ -1504,27 +1576,305 @@
     </row>
     <row r="38" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="55" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="1">
+        <v>50</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="1">
+        <v>50</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="1">
+        <v>50</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="1">
+        <v>50</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C47" s="1">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C48" s="1">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
